--- a/dataanalysis/alert/0707.xlsx
+++ b/dataanalysis/alert/0707.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="200">
   <si>
     <t>序号</t>
   </si>
@@ -89,6 +89,15 @@
     <t>最高价</t>
   </si>
   <si>
+    <t>AI预测</t>
+  </si>
+  <si>
+    <t>AI幅度</t>
+  </si>
+  <si>
+    <t>重合</t>
+  </si>
+  <si>
     <t>乐普医疗</t>
   </si>
   <si>
@@ -110,6 +119,9 @@
     <t>脑机</t>
   </si>
   <si>
+    <t>是</t>
+  </si>
+  <si>
     <t>阳普医疗</t>
   </si>
   <si>
@@ -119,9 +131,6 @@
     <t>游戏</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>台基股份</t>
   </si>
   <si>
@@ -155,9 +164,6 @@
     <t>合成革</t>
   </si>
   <si>
-    <t>是</t>
-  </si>
-  <si>
     <t>长海股份</t>
   </si>
   <si>
@@ -185,6 +191,9 @@
     <t>线缆部件及其他</t>
   </si>
   <si>
+    <t>线缆</t>
+  </si>
+  <si>
     <t>联建光电</t>
   </si>
   <si>
@@ -200,6 +209,9 @@
     <t>热力服务</t>
   </si>
   <si>
+    <t>电力</t>
+  </si>
+  <si>
     <t>科恒股份</t>
   </si>
   <si>
@@ -371,6 +383,9 @@
     <t>岱勒新材</t>
   </si>
   <si>
+    <t>芯片-金刚石线</t>
+  </si>
+  <si>
     <t>爱朋医疗</t>
   </si>
   <si>
@@ -392,12 +407,18 @@
     <t>其他化学制品</t>
   </si>
   <si>
+    <t>军工-船舶</t>
+  </si>
+  <si>
     <t>科拓生物</t>
   </si>
   <si>
     <t>食品助剂</t>
   </si>
   <si>
+    <t>食物</t>
+  </si>
+  <si>
     <t>天阳科技</t>
   </si>
   <si>
@@ -494,6 +515,9 @@
     <t>铜冠铜箔</t>
   </si>
   <si>
+    <t>铜箔</t>
+  </si>
+  <si>
     <t>西测测试</t>
   </si>
   <si>
@@ -557,6 +581,9 @@
     <t>农用机械</t>
   </si>
   <si>
+    <t>马年</t>
+  </si>
+  <si>
     <t>迈威生物-U</t>
   </si>
   <si>
@@ -572,6 +599,9 @@
     <t>前沿生物-U</t>
   </si>
   <si>
+    <t>创新药-艾滋病</t>
+  </si>
+  <si>
     <t>微芯生物</t>
   </si>
   <si>
@@ -585,6 +615,9 @@
   </si>
   <si>
     <t>汇宇制药-W</t>
+  </si>
+  <si>
+    <t>创新药-肿瘤</t>
   </si>
   <si>
     <t>信宇人</t>
@@ -1282,7 +1315,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1301,32 +1334,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1860,10 +1906,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T83"/>
+  <dimension ref="A1:W83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:R83"/>
+      <selection activeCell="U1" sqref="U1:W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1871,7 +1917,7 @@
     <col min="14" max="15" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" spans="1:20">
+    <row r="1" ht="24" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1932,8 +1978,17 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1944,7 +1999,7 @@
         <v>300003</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2" s="4">
         <v>-1.15</v>
@@ -1953,15 +2008,21 @@
         <v>15.43</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2.33</v>
+      </c>
+      <c r="I2" s="4">
+        <v>15.91</v>
+      </c>
+      <c r="J2" s="9">
+        <v>3.11</v>
+      </c>
       <c r="K2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="L2" s="11"/>
       <c r="M2" s="4">
         <v>6</v>
       </c>
@@ -1975,15 +2036,28 @@
         <v>-0.19</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-    </row>
-    <row r="3" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="15">
+        <v>0</v>
+      </c>
+      <c r="V2" s="16">
+        <v>2.36</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1994,7 +2068,7 @@
         <v>300016</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E3" s="4">
         <v>-3.1</v>
@@ -2003,15 +2077,21 @@
         <v>9.7</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="H3" s="4">
+        <v>4.64</v>
+      </c>
+      <c r="I3" s="4">
+        <v>10.75</v>
+      </c>
+      <c r="J3" s="9">
+        <v>10.82</v>
+      </c>
       <c r="K3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="L3" s="11"/>
       <c r="M3" s="4">
         <v>11</v>
       </c>
@@ -2025,15 +2105,28 @@
         <v>-1.34</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-    </row>
-    <row r="4" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="15">
+        <v>0</v>
+      </c>
+      <c r="V3" s="16">
+        <v>-0.07</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2044,7 +2137,7 @@
         <v>300030</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E4" s="4">
         <v>9.89</v>
@@ -2053,15 +2146,21 @@
         <v>8.78</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="H4" s="4">
+        <v>-2.96</v>
+      </c>
+      <c r="I4" s="4">
+        <v>8.55</v>
+      </c>
+      <c r="J4" s="9">
+        <v>-2.62</v>
+      </c>
       <c r="K4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="L4" s="11"/>
       <c r="M4" s="4">
         <v>3</v>
       </c>
@@ -2075,15 +2174,28 @@
         <v>-0.14</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-    </row>
-    <row r="5" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U4" s="15">
+        <v>0</v>
+      </c>
+      <c r="V4" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2094,7 +2206,7 @@
         <v>300043</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E5" s="4">
         <v>-0.61</v>
@@ -2103,15 +2215,21 @@
         <v>4.87</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2.26</v>
+      </c>
+      <c r="I5" s="4">
+        <v>5.15</v>
+      </c>
+      <c r="J5" s="9">
+        <v>5.75</v>
+      </c>
       <c r="K5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="L5" s="11"/>
       <c r="M5" s="4">
         <v>1</v>
       </c>
@@ -2125,15 +2243,28 @@
         <v>-0.35</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-    </row>
-    <row r="6" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U5" s="15">
+        <v>0</v>
+      </c>
+      <c r="V5" s="16">
+        <v>7.34</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2144,7 +2275,7 @@
         <v>300046</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E6" s="4">
         <v>-0.76</v>
@@ -2153,15 +2284,21 @@
         <v>40.42</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="9"/>
+        <v>35</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="I6" s="4">
+        <v>40.99</v>
+      </c>
+      <c r="J6" s="9">
+        <v>1.41</v>
+      </c>
       <c r="K6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="L6" s="11"/>
       <c r="M6" s="4">
         <v>5</v>
       </c>
@@ -2175,15 +2312,28 @@
         <v>-0.3</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-    </row>
-    <row r="7" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U6" s="15">
+        <v>0</v>
+      </c>
+      <c r="V6" s="16">
+        <v>7.1</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2194,7 +2344,7 @@
         <v>300130</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E7" s="4">
         <v>7.43</v>
@@ -2203,15 +2353,21 @@
         <v>35.59</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="9"/>
+        <v>38</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2.02</v>
+      </c>
+      <c r="I7" s="4">
+        <v>37</v>
+      </c>
+      <c r="J7" s="9">
+        <v>3.96</v>
+      </c>
       <c r="K7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="L7" s="11"/>
       <c r="M7" s="4">
         <v>15</v>
       </c>
@@ -2221,19 +2377,32 @@
       <c r="O7" s="4">
         <v>91156740</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="12">
         <v>1.33</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-    </row>
-    <row r="8" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U7" s="15">
+        <v>0</v>
+      </c>
+      <c r="V7" s="16">
+        <v>3.5</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2244,7 +2413,7 @@
         <v>300160</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E8" s="4">
         <v>-2.82</v>
@@ -2253,15 +2422,21 @@
         <v>6.2</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="H8" s="4">
+        <v>5</v>
+      </c>
+      <c r="I8" s="4">
+        <v>6.63</v>
+      </c>
+      <c r="J8" s="9">
+        <v>6.94</v>
+      </c>
       <c r="K8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="L8" s="11"/>
       <c r="M8" s="4">
         <v>4</v>
       </c>
@@ -2275,15 +2450,28 @@
         <v>-0.37</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-    </row>
-    <row r="9" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U8" s="15">
+        <v>0</v>
+      </c>
+      <c r="V8" s="16">
+        <v>1.22</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2294,24 +2482,30 @@
         <v>300180</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="7">
+        <v>43</v>
+      </c>
+      <c r="E9" s="6">
         <v>10.66</v>
       </c>
       <c r="F9" s="4">
         <v>9.86</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="I9" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="J9" s="9">
+        <v>2.43</v>
+      </c>
       <c r="K9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="L9" s="11"/>
       <c r="M9" s="4">
         <v>14</v>
       </c>
@@ -2321,19 +2515,32 @@
       <c r="O9" s="4">
         <v>731559440</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="12">
         <v>0.61</v>
       </c>
-      <c r="Q9" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="R9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="Q9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U9" s="18">
+        <v>1</v>
+      </c>
+      <c r="V9" s="16">
+        <v>0.37</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2344,7 +2551,7 @@
         <v>300196</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E10" s="4">
         <v>3.3</v>
@@ -2353,15 +2560,21 @@
         <v>14.38</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="9"/>
+        <v>46</v>
+      </c>
+      <c r="H10" s="4">
+        <v>6.61</v>
+      </c>
+      <c r="I10" s="4">
+        <v>16.45</v>
+      </c>
+      <c r="J10" s="9">
+        <v>14.39</v>
+      </c>
       <c r="K10" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="L10" s="11"/>
       <c r="M10" s="4">
         <v>4</v>
       </c>
@@ -2371,19 +2584,32 @@
       <c r="O10" s="4">
         <v>-19789366</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P10" s="12">
         <v>0.4</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-    </row>
-    <row r="11" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U10" s="15">
+        <v>0</v>
+      </c>
+      <c r="V10" s="16">
+        <v>0.24</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2394,7 +2620,7 @@
         <v>300199</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E11" s="4">
         <v>2.11</v>
@@ -2403,15 +2629,21 @@
         <v>18.88</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="H11" s="4">
+        <v>-2.33</v>
+      </c>
+      <c r="I11" s="4">
+        <v>19.66</v>
+      </c>
+      <c r="J11" s="9">
+        <v>4.13</v>
+      </c>
       <c r="K11" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L11" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="L11" s="11"/>
       <c r="M11" s="4">
         <v>4</v>
       </c>
@@ -2425,15 +2657,28 @@
         <v>-0.83</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-    </row>
-    <row r="12" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U11" s="15">
+        <v>0</v>
+      </c>
+      <c r="V11" s="16">
+        <v>2.75</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2444,7 +2689,7 @@
         <v>300204</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E12" s="4">
         <v>-1.69</v>
@@ -2453,15 +2698,21 @@
         <v>44.12</v>
       </c>
       <c r="G12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="4">
+        <v>-7.91</v>
+      </c>
+      <c r="I12" s="4">
+        <v>44.77</v>
+      </c>
+      <c r="J12" s="9">
+        <v>1.47</v>
+      </c>
+      <c r="K12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L12" s="6"/>
+      <c r="L12" s="11"/>
       <c r="M12" s="4">
         <v>33</v>
       </c>
@@ -2475,15 +2726,28 @@
         <v>-0.21</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-    </row>
-    <row r="13" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U12" s="18">
+        <v>1</v>
+      </c>
+      <c r="V12" s="16">
+        <v>6.46</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2494,7 +2758,7 @@
         <v>300265</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E13" s="4">
         <v>9.9</v>
@@ -2503,15 +2767,21 @@
         <v>10.32</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="9"/>
+        <v>53</v>
+      </c>
+      <c r="H13" s="4">
+        <v>-1.55</v>
+      </c>
+      <c r="I13" s="4">
+        <v>10.21</v>
+      </c>
+      <c r="J13" s="9">
+        <v>-1.07</v>
+      </c>
       <c r="K13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="L13" s="11"/>
       <c r="M13" s="4">
         <v>1</v>
       </c>
@@ -2521,19 +2791,32 @@
       <c r="O13" s="4">
         <v>102776767</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P13" s="12">
         <v>0.57</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R13" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-    </row>
-    <row r="14" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U13" s="15">
+        <v>0</v>
+      </c>
+      <c r="V13" s="16">
+        <v>3.22</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2544,7 +2827,7 @@
         <v>300269</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E14" s="4">
         <v>1.81</v>
@@ -2553,15 +2836,21 @@
         <v>5.62</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1.42</v>
+      </c>
+      <c r="I14" s="4">
+        <v>5.78</v>
+      </c>
+      <c r="J14" s="9">
+        <v>2.85</v>
+      </c>
       <c r="K14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="L14" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="L14" s="11"/>
       <c r="M14" s="4">
         <v>6</v>
       </c>
@@ -2575,15 +2864,28 @@
         <v>0.22</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-    </row>
-    <row r="15" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U14" s="15">
+        <v>0</v>
+      </c>
+      <c r="V14" s="16">
+        <v>0.24</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2594,24 +2896,30 @@
         <v>300335</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="7">
+        <v>58</v>
+      </c>
+      <c r="E15" s="6">
         <v>18.56</v>
       </c>
       <c r="F15" s="4">
         <v>7.09</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="H15" s="4">
+        <v>-6.21</v>
+      </c>
+      <c r="I15" s="4">
+        <v>6.75</v>
+      </c>
+      <c r="J15" s="9">
+        <v>-4.8</v>
+      </c>
       <c r="K15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="L15" s="11"/>
       <c r="M15" s="4">
         <v>1</v>
       </c>
@@ -2625,15 +2933,28 @@
         <v>-2.38</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R15" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-    </row>
-    <row r="16" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R15" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T15" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U15" s="18">
+        <v>1</v>
+      </c>
+      <c r="V15" s="16">
+        <v>4.08</v>
+      </c>
+      <c r="W15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2644,7 +2965,7 @@
         <v>300340</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E16" s="4">
         <v>0.71</v>
@@ -2653,15 +2974,21 @@
         <v>18.47</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="9"/>
+        <v>62</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="I16" s="4">
+        <v>19.06</v>
+      </c>
+      <c r="J16" s="9">
+        <v>3.19</v>
+      </c>
       <c r="K16" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L16" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="L16" s="11"/>
       <c r="M16" s="4">
         <v>20</v>
       </c>
@@ -2675,15 +3002,28 @@
         <v>-0.24</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-    </row>
-    <row r="17" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R16" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S16" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T16" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U16" s="15">
+        <v>0</v>
+      </c>
+      <c r="V16" s="16">
+        <v>5.4</v>
+      </c>
+      <c r="W16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2694,7 +3034,7 @@
         <v>300368</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E17" s="4">
         <v>1.9</v>
@@ -2703,15 +3043,21 @@
         <v>11.81</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="9"/>
+        <v>38</v>
+      </c>
+      <c r="H17" s="4">
+        <v>8.04</v>
+      </c>
+      <c r="I17" s="4">
+        <v>12.78</v>
+      </c>
+      <c r="J17" s="9">
+        <v>8.21</v>
+      </c>
       <c r="K17" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="L17" s="11"/>
       <c r="M17" s="4">
         <v>3</v>
       </c>
@@ -2725,15 +3071,28 @@
         <v>-0.13</v>
       </c>
       <c r="Q17" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-    </row>
-    <row r="18" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R17" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S17" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T17" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U17" s="15">
+        <v>0</v>
+      </c>
+      <c r="V17" s="16">
+        <v>1.86</v>
+      </c>
+      <c r="W17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2744,7 +3103,7 @@
         <v>300410</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E18" s="4">
         <v>-0.27</v>
@@ -2753,15 +3112,21 @@
         <v>7.46</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="9"/>
+        <v>66</v>
+      </c>
+      <c r="H18" s="4">
+        <v>2.82</v>
+      </c>
+      <c r="I18" s="4">
+        <v>7.77</v>
+      </c>
+      <c r="J18" s="9">
+        <v>4.16</v>
+      </c>
       <c r="K18" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L18" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="L18" s="11"/>
       <c r="M18" s="4">
         <v>3</v>
       </c>
@@ -2775,15 +3140,28 @@
         <v>-0.29</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R18" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-    </row>
-    <row r="19" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R18" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S18" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T18" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U18" s="15">
+        <v>0</v>
+      </c>
+      <c r="V18" s="16">
+        <v>3</v>
+      </c>
+      <c r="W18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2794,7 +3172,7 @@
         <v>300414</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E19" s="4">
         <v>5.19</v>
@@ -2803,15 +3181,21 @@
         <v>13.38</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="H19" s="4">
+        <v>-1.65</v>
+      </c>
+      <c r="I19" s="4">
+        <v>13.15</v>
+      </c>
+      <c r="J19" s="9">
+        <v>-1.72</v>
+      </c>
       <c r="K19" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="L19" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="L19" s="11"/>
       <c r="M19" s="4">
         <v>1</v>
       </c>
@@ -2825,15 +3209,28 @@
         <v>0.14</v>
       </c>
       <c r="Q19" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R19" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-    </row>
-    <row r="20" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R19" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S19" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T19" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U19" s="15">
+        <v>0</v>
+      </c>
+      <c r="V19" s="16">
+        <v>4.3</v>
+      </c>
+      <c r="W19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2844,7 +3241,7 @@
         <v>300429</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E20" s="4">
         <v>0.93</v>
@@ -2853,15 +3250,21 @@
         <v>14.06</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="9"/>
+        <v>71</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="I20" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="J20" s="9">
+        <v>2.42</v>
+      </c>
       <c r="K20" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="L20" s="6"/>
+        <v>72</v>
+      </c>
+      <c r="L20" s="11"/>
       <c r="M20" s="4">
         <v>5</v>
       </c>
@@ -2871,19 +3274,32 @@
       <c r="O20" s="4">
         <v>14504636</v>
       </c>
-      <c r="P20" s="11">
+      <c r="P20" s="12">
         <v>0.41</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R20" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-    </row>
-    <row r="21" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R20" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S20" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T20" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U20" s="15">
+        <v>0</v>
+      </c>
+      <c r="V20" s="16">
+        <v>2.68</v>
+      </c>
+      <c r="W20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2894,7 +3310,7 @@
         <v>300436</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E21" s="4">
         <v>8.86</v>
@@ -2903,15 +3319,21 @@
         <v>55.89</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="H21" s="4">
+        <v>7.75</v>
+      </c>
+      <c r="I21" s="4">
+        <v>63.7</v>
+      </c>
+      <c r="J21" s="9">
+        <v>13.97</v>
+      </c>
       <c r="K21" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="L21" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="L21" s="11"/>
       <c r="M21" s="4">
         <v>3</v>
       </c>
@@ -2925,15 +3347,28 @@
         <v>-2.96</v>
       </c>
       <c r="Q21" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-    </row>
-    <row r="22" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R21" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S21" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T21" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U21" s="15">
+        <v>0</v>
+      </c>
+      <c r="V21" s="16">
+        <v>-0.11</v>
+      </c>
+      <c r="W21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2944,7 +3379,7 @@
         <v>300452</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E22" s="4">
         <v>-0.9</v>
@@ -2953,15 +3388,21 @@
         <v>14.26</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="9"/>
+        <v>76</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0.28</v>
+      </c>
+      <c r="I22" s="4">
+        <v>14.69</v>
+      </c>
+      <c r="J22" s="9">
+        <v>3.02</v>
+      </c>
       <c r="K22" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="L22" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="L22" s="11"/>
       <c r="M22" s="4">
         <v>4</v>
       </c>
@@ -2975,15 +3416,28 @@
         <v>-0.86</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R22" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-    </row>
-    <row r="23" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R22" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S22" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T22" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U22" s="15">
+        <v>0</v>
+      </c>
+      <c r="V22" s="16">
+        <v>5.18</v>
+      </c>
+      <c r="W22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2994,7 +3448,7 @@
         <v>300468</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E23" s="4">
         <v>3.11</v>
@@ -3003,15 +3457,21 @@
         <v>48.68</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="9"/>
+        <v>78</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1.07</v>
+      </c>
+      <c r="I23" s="4">
+        <v>49.72</v>
+      </c>
+      <c r="J23" s="9">
+        <v>2.14</v>
+      </c>
       <c r="K23" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L23" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="L23" s="11"/>
       <c r="M23" s="4">
         <v>24</v>
       </c>
@@ -3025,15 +3485,28 @@
         <v>-0.19</v>
       </c>
       <c r="Q23" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-    </row>
-    <row r="24" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R23" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S23" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T23" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U23" s="15">
+        <v>0</v>
+      </c>
+      <c r="V23" s="16">
+        <v>7.6</v>
+      </c>
+      <c r="W23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -3044,7 +3517,7 @@
         <v>300485</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E24" s="4">
         <v>-3.4</v>
@@ -3053,15 +3526,21 @@
         <v>14.19</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="9"/>
+        <v>80</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="I24" s="4">
+        <v>15.75</v>
+      </c>
+      <c r="J24" s="9">
+        <v>10.99</v>
+      </c>
       <c r="K24" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L24" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="L24" s="11"/>
       <c r="M24" s="4">
         <v>20</v>
       </c>
@@ -3075,15 +3554,28 @@
         <v>-1.37</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R24" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-    </row>
-    <row r="25" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R24" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S24" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T24" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U24" s="15">
+        <v>0</v>
+      </c>
+      <c r="V24" s="16">
+        <v>2.71</v>
+      </c>
+      <c r="W24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -3094,7 +3586,7 @@
         <v>300515</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E25" s="4">
         <v>-1.25</v>
@@ -3103,15 +3595,21 @@
         <v>26.03</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="9"/>
+        <v>82</v>
+      </c>
+      <c r="H25" s="4">
+        <v>-2.8</v>
+      </c>
+      <c r="I25" s="4">
+        <v>27.54</v>
+      </c>
+      <c r="J25" s="9">
+        <v>5.8</v>
+      </c>
       <c r="K25" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="L25" s="6"/>
+        <v>83</v>
+      </c>
+      <c r="L25" s="11"/>
       <c r="M25" s="4">
         <v>9</v>
       </c>
@@ -3124,16 +3622,29 @@
       <c r="P25" s="4">
         <v>-0.13</v>
       </c>
-      <c r="Q25" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="R25" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="Q25" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="R25" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S25" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T25" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U25" s="15">
+        <v>0</v>
+      </c>
+      <c r="V25" s="16">
+        <v>4.68</v>
+      </c>
+      <c r="W25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -3144,7 +3655,7 @@
         <v>300516</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E26" s="4">
         <v>3.33</v>
@@ -3153,15 +3664,21 @@
         <v>40.3</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="9"/>
+        <v>85</v>
+      </c>
+      <c r="H26" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="I26" s="4">
+        <v>40.68</v>
+      </c>
+      <c r="J26" s="9">
+        <v>0.94</v>
+      </c>
       <c r="K26" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="L26" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="L26" s="11"/>
       <c r="M26" s="4">
         <v>3</v>
       </c>
@@ -3175,15 +3692,28 @@
         <v>-0.02</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R26" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-    </row>
-    <row r="27" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R26" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S26" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T26" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U26" s="15">
+        <v>0</v>
+      </c>
+      <c r="V26" s="16">
+        <v>-1.17</v>
+      </c>
+      <c r="W26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -3194,24 +3724,30 @@
         <v>300527</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="7">
+        <v>86</v>
+      </c>
+      <c r="E27" s="6">
         <v>12.17</v>
       </c>
       <c r="F27" s="4">
         <v>11.8</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="9"/>
+        <v>87</v>
+      </c>
+      <c r="H27" s="4">
+        <v>-5.34</v>
+      </c>
+      <c r="I27" s="4">
+        <v>11.58</v>
+      </c>
+      <c r="J27" s="9">
+        <v>-1.86</v>
+      </c>
       <c r="K27" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L27" s="6"/>
+        <v>88</v>
+      </c>
+      <c r="L27" s="11"/>
       <c r="M27" s="4">
         <v>5</v>
       </c>
@@ -3221,19 +3757,32 @@
       <c r="O27" s="4">
         <v>100841738</v>
       </c>
-      <c r="P27" s="11">
+      <c r="P27" s="12">
         <v>0.52</v>
       </c>
       <c r="Q27" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R27" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-    </row>
-    <row r="28" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R27" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S27" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T27" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U27" s="15">
+        <v>0</v>
+      </c>
+      <c r="V27" s="16">
+        <v>6.56</v>
+      </c>
+      <c r="W27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -3244,7 +3793,7 @@
         <v>300531</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E28" s="4">
         <v>4.3</v>
@@ -3253,15 +3802,21 @@
         <v>21.82</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="9"/>
+        <v>38</v>
+      </c>
+      <c r="H28" s="4">
+        <v>3.48</v>
+      </c>
+      <c r="I28" s="4">
+        <v>22.69</v>
+      </c>
+      <c r="J28" s="9">
+        <v>3.99</v>
+      </c>
       <c r="K28" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L28" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="L28" s="11"/>
       <c r="M28" s="4">
         <v>14</v>
       </c>
@@ -3271,19 +3826,32 @@
       <c r="O28" s="4">
         <v>5053490</v>
       </c>
-      <c r="P28" s="11">
+      <c r="P28" s="12">
         <v>0.73</v>
       </c>
-      <c r="Q28" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="R28" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="Q28" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="R28" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S28" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T28" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U28" s="15">
+        <v>0</v>
+      </c>
+      <c r="V28" s="16">
+        <v>6.27</v>
+      </c>
+      <c r="W28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -3294,7 +3862,7 @@
         <v>300533</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E29" s="4">
         <v>2.95</v>
@@ -3303,15 +3871,21 @@
         <v>35.65</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="H29" s="4">
+        <v>10.01</v>
+      </c>
+      <c r="I29" s="4">
+        <v>40.88</v>
+      </c>
+      <c r="J29" s="9">
+        <v>14.67</v>
+      </c>
       <c r="K29" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L29" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="L29" s="11"/>
       <c r="M29" s="4">
         <v>9</v>
       </c>
@@ -3325,15 +3899,28 @@
         <v>0.19</v>
       </c>
       <c r="Q29" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R29" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-    </row>
-    <row r="30" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R29" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S29" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T29" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U29" s="15">
+        <v>0</v>
+      </c>
+      <c r="V29" s="16">
+        <v>1.74</v>
+      </c>
+      <c r="W29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -3344,7 +3931,7 @@
         <v>300537</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E30" s="4">
         <v>8.95</v>
@@ -3353,15 +3940,21 @@
         <v>28.01</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="9"/>
+        <v>71</v>
+      </c>
+      <c r="H30" s="4">
+        <v>-2.39</v>
+      </c>
+      <c r="I30" s="4">
+        <v>28</v>
+      </c>
+      <c r="J30" s="9">
+        <v>-0.04</v>
+      </c>
       <c r="K30" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="L30" s="6"/>
+        <v>72</v>
+      </c>
+      <c r="L30" s="11"/>
       <c r="M30" s="4">
         <v>6</v>
       </c>
@@ -3371,19 +3964,32 @@
       <c r="O30" s="4">
         <v>199582359</v>
       </c>
-      <c r="P30" s="11">
+      <c r="P30" s="12">
         <v>2.74</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R30" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-    </row>
-    <row r="31" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R30" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S30" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T30" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U30" s="18">
+        <v>1</v>
+      </c>
+      <c r="V30" s="16">
+        <v>3.99</v>
+      </c>
+      <c r="W30" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -3394,7 +4000,7 @@
         <v>300554</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E31" s="4">
         <v>2.08</v>
@@ -3403,15 +4009,21 @@
         <v>24.98</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="9"/>
+        <v>93</v>
+      </c>
+      <c r="H31" s="4">
+        <v>7.09</v>
+      </c>
+      <c r="I31" s="4">
+        <v>29.1</v>
+      </c>
+      <c r="J31" s="9">
+        <v>16.49</v>
+      </c>
       <c r="K31" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L31" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="L31" s="11"/>
       <c r="M31" s="4">
         <v>3</v>
       </c>
@@ -3425,15 +4037,28 @@
         <v>0.14</v>
       </c>
       <c r="Q31" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R31" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-    </row>
-    <row r="32" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R31" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S31" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T31" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U31" s="15">
+        <v>0</v>
+      </c>
+      <c r="V31" s="16">
+        <v>2.15</v>
+      </c>
+      <c r="W31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -3444,7 +4069,7 @@
         <v>300581</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E32" s="4">
         <v>-3.82</v>
@@ -3453,15 +4078,21 @@
         <v>20.38</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="9"/>
+        <v>95</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="I32" s="4">
+        <v>20.98</v>
+      </c>
+      <c r="J32" s="9">
+        <v>2.94</v>
+      </c>
       <c r="K32" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="L32" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="L32" s="11"/>
       <c r="M32" s="4">
         <v>15</v>
       </c>
@@ -3475,15 +4106,28 @@
         <v>-0.71</v>
       </c>
       <c r="Q32" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R32" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-    </row>
-    <row r="33" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R32" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S32" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T32" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U32" s="15">
+        <v>0</v>
+      </c>
+      <c r="V32" s="16">
+        <v>5.59</v>
+      </c>
+      <c r="W32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -3494,7 +4138,7 @@
         <v>300589</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E33" s="4">
         <v>-1.51</v>
@@ -3503,15 +4147,21 @@
         <v>14.32</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="9"/>
+        <v>97</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="I33" s="4">
+        <v>14.52</v>
+      </c>
+      <c r="J33" s="9">
+        <v>1.4</v>
+      </c>
       <c r="K33" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="L33" s="6"/>
+        <v>98</v>
+      </c>
+      <c r="L33" s="11"/>
       <c r="M33" s="4">
         <v>5</v>
       </c>
@@ -3525,15 +4175,28 @@
         <v>-0.01</v>
       </c>
       <c r="Q33" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R33" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
-    </row>
-    <row r="34" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R33" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S33" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T33" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U33" s="15">
+        <v>0</v>
+      </c>
+      <c r="V33" s="16">
+        <v>1.51</v>
+      </c>
+      <c r="W33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -3544,7 +4207,7 @@
         <v>300591</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E34" s="4">
         <v>1.21</v>
@@ -3553,15 +4216,21 @@
         <v>11.73</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="9"/>
+        <v>100</v>
+      </c>
+      <c r="H34" s="4">
+        <v>8.27</v>
+      </c>
+      <c r="I34" s="4">
+        <v>12.7</v>
+      </c>
+      <c r="J34" s="9">
+        <v>8.27</v>
+      </c>
       <c r="K34" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="L34" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="L34" s="11"/>
       <c r="M34" s="4">
         <v>10</v>
       </c>
@@ -3575,15 +4244,28 @@
         <v>-0.91</v>
       </c>
       <c r="Q34" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R34" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-    </row>
-    <row r="35" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R34" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S34" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T34" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U34" s="18">
+        <v>1</v>
+      </c>
+      <c r="V34" s="16">
+        <v>7.89</v>
+      </c>
+      <c r="W34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -3594,7 +4276,7 @@
         <v>300600</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E35" s="4">
         <v>7.22</v>
@@ -3603,15 +4285,21 @@
         <v>15.3</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="9"/>
+        <v>97</v>
+      </c>
+      <c r="H35" s="4">
+        <v>1.83</v>
+      </c>
+      <c r="I35" s="4">
+        <v>15.58</v>
+      </c>
+      <c r="J35" s="9">
+        <v>1.83</v>
+      </c>
       <c r="K35" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="L35" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="L35" s="11"/>
       <c r="M35" s="4">
         <v>7</v>
       </c>
@@ -3621,19 +4309,32 @@
       <c r="O35" s="4">
         <v>75770934</v>
       </c>
-      <c r="P35" s="11">
+      <c r="P35" s="12">
         <v>0.81</v>
       </c>
       <c r="Q35" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R35" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-    </row>
-    <row r="36" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R35" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S35" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T35" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U35" s="15">
+        <v>0</v>
+      </c>
+      <c r="V35" s="16">
+        <v>2.12</v>
+      </c>
+      <c r="W35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -3644,7 +4345,7 @@
         <v>300619</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E36" s="4">
         <v>1.62</v>
@@ -3653,15 +4354,21 @@
         <v>26.4</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="9"/>
+        <v>66</v>
+      </c>
+      <c r="H36" s="4">
+        <v>-0.38</v>
+      </c>
+      <c r="I36" s="4">
+        <v>26.6</v>
+      </c>
+      <c r="J36" s="9">
+        <v>0.76</v>
+      </c>
       <c r="K36" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L36" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="L36" s="11"/>
       <c r="M36" s="4">
         <v>15</v>
       </c>
@@ -3675,15 +4382,28 @@
         <v>-0.05</v>
       </c>
       <c r="Q36" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R36" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-    </row>
-    <row r="37" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R36" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S36" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T36" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U36" s="15">
+        <v>0</v>
+      </c>
+      <c r="V36" s="16">
+        <v>3.23</v>
+      </c>
+      <c r="W36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -3694,7 +4414,7 @@
         <v>300645</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E37" s="4">
         <v>-4.37</v>
@@ -3703,15 +4423,21 @@
         <v>21.44</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="9"/>
+        <v>78</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1.87</v>
+      </c>
+      <c r="I37" s="4">
+        <v>22.3</v>
+      </c>
+      <c r="J37" s="9">
+        <v>4.01</v>
+      </c>
       <c r="K37" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L37" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="L37" s="11"/>
       <c r="M37" s="4">
         <v>10</v>
       </c>
@@ -3725,15 +4451,28 @@
         <v>-0.92</v>
       </c>
       <c r="Q37" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R37" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13"/>
-    </row>
-    <row r="38" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R37" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S37" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T37" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U37" s="15">
+        <v>0</v>
+      </c>
+      <c r="V37" s="16">
+        <v>3.6</v>
+      </c>
+      <c r="W37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -3744,7 +4483,7 @@
         <v>300649</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E38" s="4">
         <v>6.8</v>
@@ -3753,15 +4492,21 @@
         <v>22.3</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="9"/>
+        <v>105</v>
+      </c>
+      <c r="H38" s="4">
+        <v>-4.39</v>
+      </c>
+      <c r="I38" s="4">
+        <v>22.65</v>
+      </c>
+      <c r="J38" s="9">
+        <v>1.57</v>
+      </c>
       <c r="K38" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="L38" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="L38" s="11"/>
       <c r="M38" s="4">
         <v>7</v>
       </c>
@@ -3775,15 +4520,28 @@
         <v>-1.58</v>
       </c>
       <c r="Q38" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R38" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-    </row>
-    <row r="39" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R38" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S38" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T38" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U38" s="15">
+        <v>0</v>
+      </c>
+      <c r="V38" s="16">
+        <v>1.87</v>
+      </c>
+      <c r="W38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -3794,7 +4552,7 @@
         <v>300665</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E39" s="4">
         <v>3.83</v>
@@ -3803,15 +4561,21 @@
         <v>9.21</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="9"/>
+        <v>108</v>
+      </c>
+      <c r="H39" s="4">
+        <v>-1.3</v>
+      </c>
+      <c r="I39" s="4">
+        <v>9.22</v>
+      </c>
+      <c r="J39" s="9">
+        <v>0.11</v>
+      </c>
       <c r="K39" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="L39" s="6"/>
+        <v>109</v>
+      </c>
+      <c r="L39" s="11"/>
       <c r="M39" s="4">
         <v>4</v>
       </c>
@@ -3821,19 +4585,32 @@
       <c r="O39" s="4">
         <v>8018248</v>
       </c>
-      <c r="P39" s="11">
+      <c r="P39" s="12">
         <v>1.15</v>
       </c>
       <c r="Q39" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R39" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-    </row>
-    <row r="40" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R39" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S39" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T39" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U39" s="15">
+        <v>0</v>
+      </c>
+      <c r="V39" s="16">
+        <v>0.07</v>
+      </c>
+      <c r="W39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -3844,7 +4621,7 @@
         <v>300670</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E40" s="4">
         <v>1.95</v>
@@ -3853,15 +4630,21 @@
         <v>7.86</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="9"/>
+        <v>111</v>
+      </c>
+      <c r="H40" s="4">
+        <v>3.56</v>
+      </c>
+      <c r="I40" s="4">
+        <v>8.18</v>
+      </c>
+      <c r="J40" s="9">
+        <v>4.07</v>
+      </c>
       <c r="K40" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="L40" s="6"/>
+        <v>112</v>
+      </c>
+      <c r="L40" s="11"/>
       <c r="M40" s="4">
         <v>3</v>
       </c>
@@ -3875,15 +4658,28 @@
         <v>0.29</v>
       </c>
       <c r="Q40" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R40" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-    </row>
-    <row r="41" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R40" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S40" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T40" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U40" s="15">
+        <v>0</v>
+      </c>
+      <c r="V40" s="16">
+        <v>2.09</v>
+      </c>
+      <c r="W40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -3894,7 +4690,7 @@
         <v>300682</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E41" s="4">
         <v>2.05</v>
@@ -3903,15 +4699,21 @@
         <v>22.4</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="9"/>
+        <v>78</v>
+      </c>
+      <c r="H41" s="4">
+        <v>1.34</v>
+      </c>
+      <c r="I41" s="4">
+        <v>23.27</v>
+      </c>
+      <c r="J41" s="9">
+        <v>3.88</v>
+      </c>
       <c r="K41" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L41" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="L41" s="11"/>
       <c r="M41" s="4">
         <v>17</v>
       </c>
@@ -3925,15 +4727,28 @@
         <v>0.05</v>
       </c>
       <c r="Q41" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R41" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S41" s="13"/>
-      <c r="T41" s="13"/>
-    </row>
-    <row r="42" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R41" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S41" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T41" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U41" s="15">
+        <v>0</v>
+      </c>
+      <c r="V41" s="16">
+        <v>4.24</v>
+      </c>
+      <c r="W41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -3944,7 +4759,7 @@
         <v>300697</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E42" s="4">
         <v>-0.48</v>
@@ -3953,15 +4768,21 @@
         <v>14.6</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="9"/>
+        <v>115</v>
+      </c>
+      <c r="H42" s="4">
+        <v>2.33</v>
+      </c>
+      <c r="I42" s="4">
+        <v>15.06</v>
+      </c>
+      <c r="J42" s="9">
+        <v>3.15</v>
+      </c>
       <c r="K42" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="L42" s="6"/>
+        <v>116</v>
+      </c>
+      <c r="L42" s="11"/>
       <c r="M42" s="4">
         <v>5</v>
       </c>
@@ -3975,15 +4796,28 @@
         <v>-1.1</v>
       </c>
       <c r="Q42" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R42" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
-    </row>
-    <row r="43" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R42" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S42" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T42" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U42" s="15">
+        <v>0</v>
+      </c>
+      <c r="V42" s="16">
+        <v>4</v>
+      </c>
+      <c r="W42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -3994,7 +4828,7 @@
         <v>300700</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E43" s="4">
         <v>6.35</v>
@@ -4003,15 +4837,21 @@
         <v>12.57</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="9"/>
+        <v>93</v>
+      </c>
+      <c r="H43" s="4">
+        <v>2.23</v>
+      </c>
+      <c r="I43" s="4">
+        <v>13.07</v>
+      </c>
+      <c r="J43" s="9">
+        <v>3.98</v>
+      </c>
       <c r="K43" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L43" s="6"/>
+        <v>118</v>
+      </c>
+      <c r="L43" s="11"/>
       <c r="M43" s="4">
         <v>1</v>
       </c>
@@ -4025,15 +4865,28 @@
         <v>-0.06</v>
       </c>
       <c r="Q43" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R43" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S43" s="13"/>
-      <c r="T43" s="13"/>
-    </row>
-    <row r="44" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R43" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S43" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T43" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U43" s="15">
+        <v>0</v>
+      </c>
+      <c r="V43" s="16">
+        <v>3.63</v>
+      </c>
+      <c r="W43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -4044,7 +4897,7 @@
         <v>300753</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E44" s="4">
         <v>-1.68</v>
@@ -4053,15 +4906,21 @@
         <v>32.11</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="I44" s="4">
+        <v>32.8</v>
+      </c>
+      <c r="J44" s="9">
+        <v>2.15</v>
+      </c>
       <c r="K44" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L44" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="L44" s="11"/>
       <c r="M44" s="4">
         <v>15</v>
       </c>
@@ -4074,16 +4933,29 @@
       <c r="P44" s="4">
         <v>-0.2</v>
       </c>
-      <c r="Q44" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="R44" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S44" s="13"/>
-      <c r="T44" s="13"/>
-    </row>
-    <row r="45" spans="1:20">
+      <c r="Q44" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="R44" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S44" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T44" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U44" s="15">
+        <v>0</v>
+      </c>
+      <c r="V44" s="16">
+        <v>6.83</v>
+      </c>
+      <c r="W44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -4094,7 +4966,7 @@
         <v>300773</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E45" s="4">
         <v>4.33</v>
@@ -4103,15 +4975,21 @@
         <v>31.06</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="9"/>
+        <v>121</v>
+      </c>
+      <c r="H45" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="I45" s="4">
+        <v>31.52</v>
+      </c>
+      <c r="J45" s="9">
+        <v>1.48</v>
+      </c>
       <c r="K45" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L45" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="L45" s="11"/>
       <c r="M45" s="4">
         <v>23</v>
       </c>
@@ -4125,15 +5003,28 @@
         <v>0.13</v>
       </c>
       <c r="Q45" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R45" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S45" s="13"/>
-      <c r="T45" s="13"/>
-    </row>
-    <row r="46" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R45" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S45" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T45" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U45" s="15">
+        <v>0</v>
+      </c>
+      <c r="V45" s="16">
+        <v>5.74</v>
+      </c>
+      <c r="W45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -4144,7 +5035,7 @@
         <v>300803</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E46" s="4">
         <v>1.31</v>
@@ -4153,15 +5044,21 @@
         <v>78.76</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="9"/>
+        <v>78</v>
+      </c>
+      <c r="H46" s="4">
+        <v>2.97</v>
+      </c>
+      <c r="I46" s="4">
+        <v>82</v>
+      </c>
+      <c r="J46" s="9">
+        <v>4.11</v>
+      </c>
       <c r="K46" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="L46" s="6"/>
+        <v>123</v>
+      </c>
+      <c r="L46" s="11"/>
       <c r="M46" s="4">
         <v>7</v>
       </c>
@@ -4175,15 +5072,28 @@
         <v>-0.11</v>
       </c>
       <c r="Q46" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R46" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S46" s="13"/>
-      <c r="T46" s="13"/>
-    </row>
-    <row r="47" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R46" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S46" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T46" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U46" s="18">
+        <v>1</v>
+      </c>
+      <c r="V46" s="16">
+        <v>4.69</v>
+      </c>
+      <c r="W46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -4194,24 +5104,30 @@
         <v>300847</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E47" s="7">
+        <v>124</v>
+      </c>
+      <c r="E47" s="6">
         <v>20.02</v>
       </c>
       <c r="F47" s="4">
         <v>21.1</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="9"/>
+        <v>125</v>
+      </c>
+      <c r="H47" s="4">
+        <v>4.03</v>
+      </c>
+      <c r="I47" s="4">
+        <v>22.02</v>
+      </c>
+      <c r="J47" s="9">
+        <v>4.36</v>
+      </c>
       <c r="K47" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L47" s="6"/>
+        <v>126</v>
+      </c>
+      <c r="L47" s="11"/>
       <c r="M47" s="4">
         <v>1</v>
       </c>
@@ -4221,19 +5137,32 @@
       <c r="O47" s="4">
         <v>-206685517</v>
       </c>
-      <c r="P47" s="11">
+      <c r="P47" s="12">
         <v>3.73</v>
       </c>
       <c r="Q47" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R47" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="S47" s="13"/>
-      <c r="T47" s="13"/>
-    </row>
-    <row r="48" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R47" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S47" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="T47" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U47" s="18">
+        <v>1</v>
+      </c>
+      <c r="V47" s="16">
+        <v>16.81</v>
+      </c>
+      <c r="W47" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -4244,7 +5173,7 @@
         <v>300858</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E48" s="4">
         <v>-1.49</v>
@@ -4253,15 +5182,21 @@
         <v>18.48</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="9"/>
+        <v>128</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0</v>
+      </c>
+      <c r="I48" s="4">
+        <v>18.98</v>
+      </c>
+      <c r="J48" s="9">
+        <v>2.71</v>
+      </c>
       <c r="K48" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L48" s="6"/>
+        <v>129</v>
+      </c>
+      <c r="L48" s="11"/>
       <c r="M48" s="4">
         <v>1</v>
       </c>
@@ -4275,15 +5210,28 @@
         <v>-0.39</v>
       </c>
       <c r="Q48" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R48" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S48" s="13"/>
-      <c r="T48" s="13"/>
-    </row>
-    <row r="49" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R48" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S48" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T48" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U48" s="15">
+        <v>0</v>
+      </c>
+      <c r="V48" s="16">
+        <v>4.79</v>
+      </c>
+      <c r="W48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -4294,7 +5242,7 @@
         <v>300872</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E49" s="4">
         <v>3.51</v>
@@ -4303,15 +5251,21 @@
         <v>23.61</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="9"/>
+        <v>131</v>
+      </c>
+      <c r="H49" s="4">
+        <v>14.57</v>
+      </c>
+      <c r="I49" s="4">
+        <v>28.18</v>
+      </c>
+      <c r="J49" s="9">
+        <v>19.36</v>
+      </c>
       <c r="K49" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L49" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="L49" s="11"/>
       <c r="M49" s="4">
         <v>16</v>
       </c>
@@ -4325,15 +5279,28 @@
         <v>-1.61</v>
       </c>
       <c r="Q49" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R49" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S49" s="13"/>
-      <c r="T49" s="13"/>
-    </row>
-    <row r="50" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R49" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S49" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T49" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U49" s="15">
+        <v>0</v>
+      </c>
+      <c r="V49" s="16">
+        <v>2.83</v>
+      </c>
+      <c r="W49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -4344,7 +5311,7 @@
         <v>300875</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E50" s="4">
         <v>-0.9</v>
@@ -4353,15 +5320,21 @@
         <v>45.25</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="9"/>
+        <v>87</v>
+      </c>
+      <c r="H50" s="4">
+        <v>-2.06</v>
+      </c>
+      <c r="I50" s="4">
+        <v>45.76</v>
+      </c>
+      <c r="J50" s="9">
+        <v>1.13</v>
+      </c>
       <c r="K50" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="L50" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="L50" s="11"/>
       <c r="M50" s="4">
         <v>6</v>
       </c>
@@ -4375,15 +5348,28 @@
         <v>-0.7</v>
       </c>
       <c r="Q50" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R50" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S50" s="13"/>
-      <c r="T50" s="13"/>
-    </row>
-    <row r="51" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R50" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S50" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T50" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U50" s="15">
+        <v>0</v>
+      </c>
+      <c r="V50" s="16">
+        <v>6.15</v>
+      </c>
+      <c r="W50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -4394,7 +5380,7 @@
         <v>300903</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E51" s="4">
         <v>-1.86</v>
@@ -4403,15 +5389,21 @@
         <v>10.53</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="9"/>
+        <v>134</v>
+      </c>
+      <c r="H51" s="4">
+        <v>6.27</v>
+      </c>
+      <c r="I51" s="4">
+        <v>11.3</v>
+      </c>
+      <c r="J51" s="9">
+        <v>7.31</v>
+      </c>
       <c r="K51" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="L51" s="6"/>
+        <v>135</v>
+      </c>
+      <c r="L51" s="11"/>
       <c r="M51" s="4">
         <v>12</v>
       </c>
@@ -4425,15 +5417,28 @@
         <v>-1.13</v>
       </c>
       <c r="Q51" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R51" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S51" s="13"/>
-      <c r="T51" s="13"/>
-    </row>
-    <row r="52" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R51" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S51" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T51" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U51" s="15">
+        <v>0</v>
+      </c>
+      <c r="V51" s="16">
+        <v>2.97</v>
+      </c>
+      <c r="W51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -4444,7 +5449,7 @@
         <v>300971</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E52" s="4">
         <v>-0.74</v>
@@ -4453,15 +5458,21 @@
         <v>24.25</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="9"/>
+        <v>137</v>
+      </c>
+      <c r="H52" s="4">
+        <v>-2.6</v>
+      </c>
+      <c r="I52" s="4">
+        <v>24.5</v>
+      </c>
+      <c r="J52" s="9">
+        <v>1.03</v>
+      </c>
       <c r="K52" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="L52" s="6"/>
+        <v>138</v>
+      </c>
+      <c r="L52" s="11"/>
       <c r="M52" s="4">
         <v>5</v>
       </c>
@@ -4475,15 +5486,28 @@
         <v>-0.15</v>
       </c>
       <c r="Q52" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R52" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S52" s="13"/>
-      <c r="T52" s="13"/>
-    </row>
-    <row r="53" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R52" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S52" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T52" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U52" s="15">
+        <v>0</v>
+      </c>
+      <c r="V52" s="16">
+        <v>-0.37</v>
+      </c>
+      <c r="W52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -4494,7 +5518,7 @@
         <v>300991</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E53" s="4">
         <v>6.12</v>
@@ -4503,15 +5527,21 @@
         <v>31.58</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="9"/>
+        <v>140</v>
+      </c>
+      <c r="H53" s="4">
+        <v>-0.92</v>
+      </c>
+      <c r="I53" s="4">
+        <v>32.44</v>
+      </c>
+      <c r="J53" s="9">
+        <v>2.72</v>
+      </c>
       <c r="K53" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="L53" s="6"/>
+        <v>141</v>
+      </c>
+      <c r="L53" s="11"/>
       <c r="M53" s="4">
         <v>6</v>
       </c>
@@ -4525,15 +5555,28 @@
         <v>0.27</v>
       </c>
       <c r="Q53" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R53" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S53" s="13"/>
-      <c r="T53" s="13"/>
-    </row>
-    <row r="54" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R53" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S53" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T53" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U53" s="15">
+        <v>0</v>
+      </c>
+      <c r="V53" s="16">
+        <v>5.64</v>
+      </c>
+      <c r="W53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -4544,7 +5587,7 @@
         <v>300993</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E54" s="4">
         <v>4.47</v>
@@ -4553,15 +5596,21 @@
         <v>16.35</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="9"/>
+        <v>143</v>
+      </c>
+      <c r="H54" s="4">
+        <v>-4.22</v>
+      </c>
+      <c r="I54" s="4">
+        <v>16.59</v>
+      </c>
+      <c r="J54" s="9">
+        <v>1.47</v>
+      </c>
       <c r="K54" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="L54" s="6"/>
+        <v>144</v>
+      </c>
+      <c r="L54" s="11"/>
       <c r="M54" s="4">
         <v>6</v>
       </c>
@@ -4575,15 +5624,28 @@
         <v>-0.27</v>
       </c>
       <c r="Q54" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R54" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S54" s="13"/>
-      <c r="T54" s="13"/>
-    </row>
-    <row r="55" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R54" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S54" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T54" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U54" s="15">
+        <v>0</v>
+      </c>
+      <c r="V54" s="16">
+        <v>-0.97</v>
+      </c>
+      <c r="W54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -4594,7 +5656,7 @@
         <v>301007</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E55" s="4">
         <v>-2.82</v>
@@ -4603,15 +5665,21 @@
         <v>30.38</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="9"/>
+        <v>146</v>
+      </c>
+      <c r="H55" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="I55" s="4">
+        <v>30.96</v>
+      </c>
+      <c r="J55" s="9">
+        <v>1.91</v>
+      </c>
       <c r="K55" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="L55" s="6"/>
+        <v>147</v>
+      </c>
+      <c r="L55" s="11"/>
       <c r="M55" s="4">
         <v>4</v>
       </c>
@@ -4624,16 +5692,29 @@
       <c r="P55" s="4">
         <v>0.29</v>
       </c>
-      <c r="Q55" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="R55" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S55" s="13"/>
-      <c r="T55" s="13"/>
-    </row>
-    <row r="56" spans="1:20">
+      <c r="Q55" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="R55" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S55" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T55" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U55" s="15">
+        <v>0</v>
+      </c>
+      <c r="V55" s="16">
+        <v>4.37</v>
+      </c>
+      <c r="W55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -4644,7 +5725,7 @@
         <v>301024</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E56" s="4">
         <v>-0.9</v>
@@ -4653,15 +5734,21 @@
         <v>57.58</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="9"/>
+        <v>149</v>
+      </c>
+      <c r="H56" s="4">
+        <v>5.51</v>
+      </c>
+      <c r="I56" s="4">
+        <v>62.66</v>
+      </c>
+      <c r="J56" s="9">
+        <v>8.82</v>
+      </c>
       <c r="K56" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L56" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="L56" s="11"/>
       <c r="M56" s="4">
         <v>5</v>
       </c>
@@ -4675,15 +5762,28 @@
         <v>-0.7</v>
       </c>
       <c r="Q56" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R56" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S56" s="13"/>
-      <c r="T56" s="13"/>
-    </row>
-    <row r="57" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R56" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S56" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T56" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U56" s="15">
+        <v>0</v>
+      </c>
+      <c r="V56" s="16">
+        <v>3.14</v>
+      </c>
+      <c r="W56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -4694,7 +5794,7 @@
         <v>301132</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E57" s="4">
         <v>-3</v>
@@ -4703,15 +5803,21 @@
         <v>35.3</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="9"/>
+        <v>134</v>
+      </c>
+      <c r="H57" s="4">
+        <v>4.33</v>
+      </c>
+      <c r="I57" s="4">
+        <v>37.63</v>
+      </c>
+      <c r="J57" s="9">
+        <v>6.6</v>
+      </c>
       <c r="K57" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="L57" s="6"/>
+        <v>134</v>
+      </c>
+      <c r="L57" s="11"/>
       <c r="M57" s="4">
         <v>10</v>
       </c>
@@ -4725,15 +5831,28 @@
         <v>-1.39</v>
       </c>
       <c r="Q57" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R57" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S57" s="13"/>
-      <c r="T57" s="13"/>
-    </row>
-    <row r="58" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R57" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S57" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T57" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U57" s="15">
+        <v>0</v>
+      </c>
+      <c r="V57" s="16">
+        <v>5.39</v>
+      </c>
+      <c r="W57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -4744,7 +5863,7 @@
         <v>301137</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E58" s="4">
         <v>3.75</v>
@@ -4753,15 +5872,21 @@
         <v>39.85</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="9"/>
+        <v>152</v>
+      </c>
+      <c r="H58" s="4">
+        <v>-3.21</v>
+      </c>
+      <c r="I58" s="4">
+        <v>39.07</v>
+      </c>
+      <c r="J58" s="9">
+        <v>-1.96</v>
+      </c>
       <c r="K58" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="L58" s="6"/>
+        <v>153</v>
+      </c>
+      <c r="L58" s="11"/>
       <c r="M58" s="4">
         <v>6</v>
       </c>
@@ -4775,15 +5900,28 @@
         <v>0.17</v>
       </c>
       <c r="Q58" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R58" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S58" s="13"/>
-      <c r="T58" s="13"/>
-    </row>
-    <row r="59" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R58" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S58" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T58" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U58" s="15">
+        <v>0</v>
+      </c>
+      <c r="V58" s="16">
+        <v>6.29</v>
+      </c>
+      <c r="W58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -4794,24 +5932,30 @@
         <v>301141</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E59" s="7">
+        <v>154</v>
+      </c>
+      <c r="E59" s="6">
         <v>10.46</v>
       </c>
       <c r="F59" s="4">
         <v>64.73</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="9"/>
+        <v>155</v>
+      </c>
+      <c r="H59" s="4">
+        <v>1.39</v>
+      </c>
+      <c r="I59" s="4">
+        <v>67.89</v>
+      </c>
+      <c r="J59" s="9">
+        <v>4.88</v>
+      </c>
       <c r="K59" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="L59" s="6"/>
+        <v>155</v>
+      </c>
+      <c r="L59" s="11"/>
       <c r="M59" s="4">
         <v>7</v>
       </c>
@@ -4821,19 +5965,32 @@
       <c r="O59" s="4">
         <v>219607123</v>
       </c>
-      <c r="P59" s="11">
+      <c r="P59" s="12">
         <v>2.38</v>
       </c>
       <c r="Q59" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R59" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="S59" s="13"/>
-      <c r="T59" s="13"/>
-    </row>
-    <row r="60" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R59" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S59" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T59" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U59" s="18">
+        <v>1</v>
+      </c>
+      <c r="V59" s="16">
+        <v>5.14</v>
+      </c>
+      <c r="W59" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -4844,7 +6001,7 @@
         <v>301150</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E60" s="4">
         <v>-4.39</v>
@@ -4853,15 +6010,21 @@
         <v>23.3</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="9"/>
+        <v>157</v>
+      </c>
+      <c r="H60" s="4">
+        <v>5.19</v>
+      </c>
+      <c r="I60" s="4">
+        <v>26.05</v>
+      </c>
+      <c r="J60" s="9">
+        <v>11.8</v>
+      </c>
       <c r="K60" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L60" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="L60" s="11"/>
       <c r="M60" s="4">
         <v>3</v>
       </c>
@@ -4875,15 +6038,28 @@
         <v>-0.24</v>
       </c>
       <c r="Q60" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R60" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S60" s="13"/>
-      <c r="T60" s="13"/>
-    </row>
-    <row r="61" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R60" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S60" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T60" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U60" s="15">
+        <v>0</v>
+      </c>
+      <c r="V60" s="16">
+        <v>2.48</v>
+      </c>
+      <c r="W60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -4894,7 +6070,7 @@
         <v>301176</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E61" s="4">
         <v>-8.59</v>
@@ -4903,15 +6079,21 @@
         <v>31.61</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="9"/>
+        <v>134</v>
+      </c>
+      <c r="H61" s="4">
+        <v>19.99</v>
+      </c>
+      <c r="I61" s="4">
+        <v>37.93</v>
+      </c>
+      <c r="J61" s="9">
+        <v>19.99</v>
+      </c>
       <c r="K61" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="L61" s="6"/>
+        <v>134</v>
+      </c>
+      <c r="L61" s="11"/>
       <c r="M61" s="4">
         <v>12</v>
       </c>
@@ -4925,15 +6107,28 @@
         <v>-2.82</v>
       </c>
       <c r="Q61" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R61" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S61" s="13"/>
-      <c r="T61" s="13"/>
-    </row>
-    <row r="62" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R61" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S61" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T61" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U61" s="15">
+        <v>0</v>
+      </c>
+      <c r="V61" s="16">
+        <v>2.07</v>
+      </c>
+      <c r="W61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -4944,24 +6139,30 @@
         <v>301178</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E62" s="7">
+        <v>159</v>
+      </c>
+      <c r="E62" s="6">
         <v>10.94</v>
       </c>
       <c r="F62" s="4">
         <v>56.91</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="9"/>
+        <v>78</v>
+      </c>
+      <c r="H62" s="4">
+        <v>5.43</v>
+      </c>
+      <c r="I62" s="4">
+        <v>60.64</v>
+      </c>
+      <c r="J62" s="9">
+        <v>6.55</v>
+      </c>
       <c r="K62" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="L62" s="6"/>
+        <v>160</v>
+      </c>
+      <c r="L62" s="11"/>
       <c r="M62" s="4">
         <v>1</v>
       </c>
@@ -4975,15 +6176,28 @@
         <v>0.03</v>
       </c>
       <c r="Q62" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R62" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S62" s="13"/>
-      <c r="T62" s="13"/>
-    </row>
-    <row r="63" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R62" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S62" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T62" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U62" s="18">
+        <v>1</v>
+      </c>
+      <c r="V62" s="16">
+        <v>9.72</v>
+      </c>
+      <c r="W62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -4994,24 +6208,30 @@
         <v>301217</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E63" s="7">
+        <v>161</v>
+      </c>
+      <c r="E63" s="6">
         <v>11.73</v>
       </c>
       <c r="F63" s="4">
         <v>14.95</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="9"/>
+        <v>115</v>
+      </c>
+      <c r="H63" s="4">
+        <v>12.91</v>
+      </c>
+      <c r="I63" s="4">
+        <v>17.3</v>
+      </c>
+      <c r="J63" s="9">
+        <v>15.72</v>
+      </c>
       <c r="K63" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L63" s="6"/>
+        <v>162</v>
+      </c>
+      <c r="L63" s="11"/>
       <c r="M63" s="4">
         <v>1</v>
       </c>
@@ -5021,19 +6241,32 @@
       <c r="O63" s="4">
         <v>184063997</v>
       </c>
-      <c r="P63" s="11">
+      <c r="P63" s="12">
         <v>0.43</v>
       </c>
       <c r="Q63" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R63" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="S63" s="13"/>
-      <c r="T63" s="13"/>
-    </row>
-    <row r="64" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R63" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S63" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="T63" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U63" s="15">
+        <v>0</v>
+      </c>
+      <c r="V63" s="16">
+        <v>7.27</v>
+      </c>
+      <c r="W63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -5044,7 +6277,7 @@
         <v>301306</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E64" s="4">
         <v>3.42</v>
@@ -5053,15 +6286,21 @@
         <v>58.9</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="9"/>
+        <v>164</v>
+      </c>
+      <c r="H64" s="4">
+        <v>-4.89</v>
+      </c>
+      <c r="I64" s="4">
+        <v>60.9</v>
+      </c>
+      <c r="J64" s="9">
+        <v>3.4</v>
+      </c>
       <c r="K64" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L64" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="L64" s="11"/>
       <c r="M64" s="4">
         <v>2</v>
       </c>
@@ -5071,19 +6310,32 @@
       <c r="O64" s="4">
         <v>13984347</v>
       </c>
-      <c r="P64" s="11">
+      <c r="P64" s="12">
         <v>0.64</v>
       </c>
-      <c r="Q64" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="R64" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="S64" s="13"/>
-      <c r="T64" s="13"/>
-    </row>
-    <row r="65" spans="1:20">
+      <c r="Q64" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="R64" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S64" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T64" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U64" s="18">
+        <v>1</v>
+      </c>
+      <c r="V64" s="16">
+        <v>4.01</v>
+      </c>
+      <c r="W64" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -5094,7 +6346,7 @@
         <v>301311</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E65" s="4">
         <v>8.61</v>
@@ -5103,15 +6355,21 @@
         <v>22.08</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="9"/>
+        <v>166</v>
+      </c>
+      <c r="H65" s="4">
+        <v>-1.45</v>
+      </c>
+      <c r="I65" s="4">
+        <v>22.07</v>
+      </c>
+      <c r="J65" s="9">
+        <v>-0.05</v>
+      </c>
       <c r="K65" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="L65" s="6"/>
+        <v>98</v>
+      </c>
+      <c r="L65" s="11"/>
       <c r="M65" s="4">
         <v>1</v>
       </c>
@@ -5121,19 +6379,32 @@
       <c r="O65" s="4">
         <v>81799102</v>
       </c>
-      <c r="P65" s="11">
+      <c r="P65" s="12">
         <v>0.77</v>
       </c>
       <c r="Q65" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R65" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="S65" s="13"/>
-      <c r="T65" s="13"/>
-    </row>
-    <row r="66" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R65" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S65" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T65" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U65" s="15">
+        <v>0</v>
+      </c>
+      <c r="V65" s="16">
+        <v>2.22</v>
+      </c>
+      <c r="W65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -5144,7 +6415,7 @@
         <v>301312</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E66" s="4">
         <v>-0.19</v>
@@ -5153,15 +6424,21 @@
         <v>42.62</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="9"/>
+        <v>168</v>
+      </c>
+      <c r="H66" s="4">
+        <v>1.81</v>
+      </c>
+      <c r="I66" s="4">
+        <v>43.76</v>
+      </c>
+      <c r="J66" s="9">
+        <v>2.67</v>
+      </c>
       <c r="K66" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="L66" s="6"/>
+        <v>169</v>
+      </c>
+      <c r="L66" s="11"/>
       <c r="M66" s="4">
         <v>7</v>
       </c>
@@ -5175,15 +6452,28 @@
         <v>-1.18</v>
       </c>
       <c r="Q66" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R66" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S66" s="13"/>
-      <c r="T66" s="13"/>
-    </row>
-    <row r="67" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R66" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S66" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T66" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U66" s="18">
+        <v>1</v>
+      </c>
+      <c r="V66" s="16">
+        <v>3.18</v>
+      </c>
+      <c r="W66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -5194,7 +6484,7 @@
         <v>301345</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E67" s="4">
         <v>0.73</v>
@@ -5203,15 +6493,21 @@
         <v>135.99</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="9"/>
+        <v>171</v>
+      </c>
+      <c r="H67" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I67" s="4">
+        <v>137.27</v>
+      </c>
+      <c r="J67" s="9">
+        <v>0.94</v>
+      </c>
       <c r="K67" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="L67" s="6"/>
+        <v>172</v>
+      </c>
+      <c r="L67" s="11"/>
       <c r="M67" s="4">
         <v>5</v>
       </c>
@@ -5225,15 +6521,28 @@
         <v>0.21</v>
       </c>
       <c r="Q67" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R67" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S67" s="13"/>
-      <c r="T67" s="13"/>
-    </row>
-    <row r="68" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R67" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S67" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T67" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U67" s="15">
+        <v>0</v>
+      </c>
+      <c r="V67" s="16">
+        <v>3.98</v>
+      </c>
+      <c r="W67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -5244,7 +6553,7 @@
         <v>301357</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E68" s="4">
         <v>5</v>
@@ -5253,15 +6562,21 @@
         <v>84</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="9"/>
+        <v>87</v>
+      </c>
+      <c r="H68" s="4">
+        <v>1.04</v>
+      </c>
+      <c r="I68" s="4">
+        <v>87.44</v>
+      </c>
+      <c r="J68" s="9">
+        <v>4.1</v>
+      </c>
       <c r="K68" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="L68" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="L68" s="11"/>
       <c r="M68" s="4">
         <v>3</v>
       </c>
@@ -5271,19 +6586,32 @@
       <c r="O68" s="4">
         <v>21486210</v>
       </c>
-      <c r="P68" s="11">
+      <c r="P68" s="12">
         <v>0.7</v>
       </c>
       <c r="Q68" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R68" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="S68" s="13"/>
-      <c r="T68" s="13"/>
-    </row>
-    <row r="69" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R68" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S68" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T68" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U68" s="15">
+        <v>0</v>
+      </c>
+      <c r="V68" s="16">
+        <v>2.72</v>
+      </c>
+      <c r="W68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -5294,24 +6622,30 @@
         <v>301388</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E69" s="7">
+        <v>174</v>
+      </c>
+      <c r="E69" s="6">
         <v>20</v>
       </c>
       <c r="F69" s="4">
         <v>31.74</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="9"/>
+        <v>111</v>
+      </c>
+      <c r="H69" s="4">
+        <v>20.01</v>
+      </c>
+      <c r="I69" s="4">
+        <v>38.09</v>
+      </c>
+      <c r="J69" s="9">
+        <v>20.01</v>
+      </c>
       <c r="K69" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L69" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="L69" s="11"/>
       <c r="M69" s="4">
         <v>1</v>
       </c>
@@ -5321,19 +6655,32 @@
       <c r="O69" s="4">
         <v>56715954</v>
       </c>
-      <c r="P69" s="11">
+      <c r="P69" s="12">
         <v>7.82</v>
       </c>
       <c r="Q69" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R69" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="S69" s="13"/>
-      <c r="T69" s="13"/>
-    </row>
-    <row r="70" spans="1:20">
+        <v>26</v>
+      </c>
+      <c r="R69" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S69" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="T69" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U69" s="18">
+        <v>1</v>
+      </c>
+      <c r="V69" s="16">
+        <v>9.03</v>
+      </c>
+      <c r="W69" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -5344,7 +6691,7 @@
         <v>301408</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="E70" s="4">
         <v>2.72</v>
@@ -5353,15 +6700,21 @@
         <v>14.71</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="9"/>
+        <v>176</v>
+      </c>
+      <c r="H70" s="4">
+        <v>-1.97</v>
+      </c>
+      <c r="I70" s="4">
+        <v>14.95</v>
+      </c>
+      <c r="J70" s="9">
+        <v>1.63</v>
+      </c>
       <c r="K70" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="L70" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="L70" s="11"/>
       <c r="M70" s="4">
         <v>5</v>
       </c>
@@ -5371,19 +6724,32 @@
       <c r="O70" s="4">
         <v>-3996841</v>
       </c>
-      <c r="P70" s="11">
+      <c r="P70" s="12">
         <v>1.07</v>
       </c>
       <c r="Q70" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R70" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S70" s="13"/>
-      <c r="T70" s="13"/>
-    </row>
-    <row r="71" spans="1:18">
+        <v>26</v>
+      </c>
+      <c r="R70" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S70" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T70" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U70" s="15">
+        <v>0</v>
+      </c>
+      <c r="V70" s="16">
+        <v>5.43</v>
+      </c>
+      <c r="W70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -5394,7 +6760,7 @@
         <v>301421</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E71" s="4">
         <v>-1.6</v>
@@ -5403,15 +6769,21 @@
         <v>72.44</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="9"/>
+        <v>178</v>
+      </c>
+      <c r="H71" s="4">
+        <v>-0.76</v>
+      </c>
+      <c r="I71" s="4">
+        <v>73.33</v>
+      </c>
+      <c r="J71" s="9">
+        <v>1.23</v>
+      </c>
       <c r="K71" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="L71" s="6"/>
+        <v>179</v>
+      </c>
+      <c r="L71" s="11"/>
       <c r="M71" s="4">
         <v>11</v>
       </c>
@@ -5425,13 +6797,28 @@
         <v>-0.77</v>
       </c>
       <c r="Q71" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R71" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18">
+        <v>26</v>
+      </c>
+      <c r="R71" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S71" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T71" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U71" s="15">
+        <v>0</v>
+      </c>
+      <c r="V71" s="16">
+        <v>5.96</v>
+      </c>
+      <c r="W71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -5442,7 +6829,7 @@
         <v>301511</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E72" s="4">
         <v>3.36</v>
@@ -5451,15 +6838,21 @@
         <v>25.22</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="9"/>
+        <v>157</v>
+      </c>
+      <c r="H72" s="4">
+        <v>7.02</v>
+      </c>
+      <c r="I72" s="4">
+        <v>27.48</v>
+      </c>
+      <c r="J72" s="9">
+        <v>8.96</v>
+      </c>
       <c r="K72" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="L72" s="6"/>
+        <v>181</v>
+      </c>
+      <c r="L72" s="11"/>
       <c r="M72" s="4">
         <v>10</v>
       </c>
@@ -5473,13 +6866,28 @@
         <v>-1.47</v>
       </c>
       <c r="Q72" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R72" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18">
+        <v>26</v>
+      </c>
+      <c r="R72" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S72" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T72" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U72" s="15">
+        <v>0</v>
+      </c>
+      <c r="V72" s="16">
+        <v>2.11</v>
+      </c>
+      <c r="W72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -5490,7 +6898,7 @@
         <v>301533</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E73" s="4">
         <v>3.17</v>
@@ -5499,15 +6907,21 @@
         <v>42.33</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="2">
-        <v>0</v>
-      </c>
-      <c r="L73" s="6"/>
+        <v>183</v>
+      </c>
+      <c r="H73" s="4">
+        <v>-1.58</v>
+      </c>
+      <c r="I73" s="4">
+        <v>42.42</v>
+      </c>
+      <c r="J73" s="9">
+        <v>0.21</v>
+      </c>
+      <c r="K73" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="L73" s="11"/>
       <c r="M73" s="4">
         <v>2</v>
       </c>
@@ -5521,13 +6935,28 @@
         <v>0.27</v>
       </c>
       <c r="Q73" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R73" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18">
+        <v>26</v>
+      </c>
+      <c r="R73" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S73" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T73" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U73" s="15">
+        <v>0</v>
+      </c>
+      <c r="V73" s="16">
+        <v>3.19</v>
+      </c>
+      <c r="W73" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -5538,7 +6967,7 @@
         <v>688062</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="E74" s="4">
         <v>1.27</v>
@@ -5547,15 +6976,21 @@
         <v>31.02</v>
       </c>
       <c r="G74" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H74" s="4">
+        <v>-1.39</v>
+      </c>
+      <c r="I74" s="4">
+        <v>32.95</v>
+      </c>
+      <c r="J74" s="9">
+        <v>6.22</v>
+      </c>
+      <c r="K74" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L74" s="6"/>
+      <c r="L74" s="11"/>
       <c r="M74" s="4">
         <v>3</v>
       </c>
@@ -5565,17 +7000,32 @@
       <c r="O74" s="4">
         <v>49367817</v>
       </c>
-      <c r="P74" s="11">
+      <c r="P74" s="12">
         <v>0.51</v>
       </c>
       <c r="Q74" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R74" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18">
+        <v>26</v>
+      </c>
+      <c r="R74" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S74" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T74" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U74" s="15">
+        <v>0</v>
+      </c>
+      <c r="V74" s="16">
+        <v>13.43</v>
+      </c>
+      <c r="W74" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -5586,7 +7036,7 @@
         <v>688117</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="E75" s="4">
         <v>-0.77</v>
@@ -5595,15 +7045,21 @@
         <v>35.02</v>
       </c>
       <c r="G75" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H75" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="I75" s="4">
+        <v>36.99</v>
+      </c>
+      <c r="J75" s="9">
+        <v>5.63</v>
+      </c>
+      <c r="K75" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="9"/>
-      <c r="K75" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L75" s="6"/>
+      <c r="L75" s="11"/>
       <c r="M75" s="4">
         <v>20</v>
       </c>
@@ -5617,13 +7073,28 @@
         <v>-0.25</v>
       </c>
       <c r="Q75" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R75" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18">
+        <v>26</v>
+      </c>
+      <c r="R75" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S75" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T75" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U75" s="15">
+        <v>0</v>
+      </c>
+      <c r="V75" s="16">
+        <v>2.26</v>
+      </c>
+      <c r="W75" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -5634,7 +7105,7 @@
         <v>688199</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="E76" s="4">
         <v>2.15</v>
@@ -5643,15 +7114,21 @@
         <v>27.06</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="9"/>
+        <v>188</v>
+      </c>
+      <c r="H76" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="I76" s="4">
+        <v>27.72</v>
+      </c>
+      <c r="J76" s="9">
+        <v>2.44</v>
+      </c>
       <c r="K76" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="L76" s="6"/>
+        <v>134</v>
+      </c>
+      <c r="L76" s="11"/>
       <c r="M76" s="4">
         <v>3</v>
       </c>
@@ -5661,17 +7138,32 @@
       <c r="O76" s="4">
         <v>-22698825</v>
       </c>
-      <c r="P76" s="11">
+      <c r="P76" s="12">
         <v>0.66</v>
       </c>
       <c r="Q76" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R76" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18">
+        <v>26</v>
+      </c>
+      <c r="R76" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S76" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T76" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U76" s="15">
+        <v>0</v>
+      </c>
+      <c r="V76" s="16">
+        <v>5.31</v>
+      </c>
+      <c r="W76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -5682,7 +7174,7 @@
         <v>688221</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="E77" s="4">
         <v>8.02</v>
@@ -5691,15 +7183,21 @@
         <v>13.87</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="H77" s="4">
+        <v>6.71</v>
+      </c>
+      <c r="I77" s="4">
+        <v>15.25</v>
+      </c>
+      <c r="J77" s="9">
+        <v>9.95</v>
+      </c>
       <c r="K77" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L77" s="6"/>
+        <v>190</v>
+      </c>
+      <c r="L77" s="11"/>
       <c r="M77" s="4">
         <v>1</v>
       </c>
@@ -5713,13 +7211,28 @@
         <v>-0.07</v>
       </c>
       <c r="Q77" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R77" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18">
+        <v>26</v>
+      </c>
+      <c r="R77" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S77" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T77" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U77" s="15">
+        <v>0</v>
+      </c>
+      <c r="V77" s="16">
+        <v>6.28</v>
+      </c>
+      <c r="W77" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -5730,7 +7243,7 @@
         <v>688321</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="E78" s="4">
         <v>5.81</v>
@@ -5739,15 +7252,21 @@
         <v>32.8</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="H78" s="4">
+        <v>-4.27</v>
+      </c>
+      <c r="I78" s="4">
+        <v>34.77</v>
+      </c>
+      <c r="J78" s="9">
+        <v>6.01</v>
+      </c>
       <c r="K78" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="L78" s="6"/>
+        <v>192</v>
+      </c>
+      <c r="L78" s="11"/>
       <c r="M78" s="4">
         <v>5</v>
       </c>
@@ -5761,13 +7280,28 @@
         <v>-0.12</v>
       </c>
       <c r="Q78" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R78" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18">
+        <v>26</v>
+      </c>
+      <c r="R78" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S78" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T78" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U78" s="15">
+        <v>0</v>
+      </c>
+      <c r="V78" s="16">
+        <v>3.64</v>
+      </c>
+      <c r="W78" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -5778,7 +7312,7 @@
         <v>688353</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E79" s="4">
         <v>-5.36</v>
@@ -5787,15 +7321,21 @@
         <v>34.26</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="9"/>
+        <v>62</v>
+      </c>
+      <c r="H79" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="I79" s="4">
+        <v>35.58</v>
+      </c>
+      <c r="J79" s="9">
+        <v>3.85</v>
+      </c>
       <c r="K79" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L79" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="L79" s="11"/>
       <c r="M79" s="4">
         <v>3</v>
       </c>
@@ -5809,13 +7349,28 @@
         <v>-1.24</v>
       </c>
       <c r="Q79" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R79" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18">
+        <v>26</v>
+      </c>
+      <c r="R79" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S79" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T79" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U79" s="15">
+        <v>0</v>
+      </c>
+      <c r="V79" s="16">
+        <v>1.67</v>
+      </c>
+      <c r="W79" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -5826,7 +7381,7 @@
         <v>688499</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="E80" s="4">
         <v>0.45</v>
@@ -5835,15 +7390,21 @@
         <v>39.8</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="9"/>
+        <v>66</v>
+      </c>
+      <c r="H80" s="4">
+        <v>-1.31</v>
+      </c>
+      <c r="I80" s="4">
+        <v>40.5</v>
+      </c>
+      <c r="J80" s="9">
+        <v>1.76</v>
+      </c>
       <c r="K80" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L80" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="L80" s="11"/>
       <c r="M80" s="4">
         <v>15</v>
       </c>
@@ -5857,13 +7418,28 @@
         <v>0.05</v>
       </c>
       <c r="Q80" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R80" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18">
+        <v>26</v>
+      </c>
+      <c r="R80" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S80" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T80" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U80" s="18">
+        <v>1</v>
+      </c>
+      <c r="V80" s="16">
+        <v>9.79</v>
+      </c>
+      <c r="W80" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -5874,7 +7450,7 @@
         <v>688553</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="E81" s="4">
         <v>-4.25</v>
@@ -5883,15 +7459,21 @@
         <v>20.04</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="H81" s="4">
+        <v>-2.94</v>
+      </c>
+      <c r="I81" s="4">
+        <v>21.35</v>
+      </c>
+      <c r="J81" s="9">
+        <v>6.54</v>
+      </c>
       <c r="K81" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L81" s="6"/>
+        <v>196</v>
+      </c>
+      <c r="L81" s="11"/>
       <c r="M81" s="4">
         <v>2</v>
       </c>
@@ -5905,13 +7487,28 @@
         <v>-0.4</v>
       </c>
       <c r="Q81" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R81" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18">
+        <v>26</v>
+      </c>
+      <c r="R81" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S81" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T81" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U81" s="15">
+        <v>0</v>
+      </c>
+      <c r="V81" s="16">
+        <v>1.82</v>
+      </c>
+      <c r="W81" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -5922,7 +7519,7 @@
         <v>688573</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="E82" s="4">
         <v>-1.01</v>
@@ -5931,15 +7528,21 @@
         <v>30.39</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="9"/>
+        <v>66</v>
+      </c>
+      <c r="H82" s="4">
+        <v>-1.41</v>
+      </c>
+      <c r="I82" s="4">
+        <v>30.66</v>
+      </c>
+      <c r="J82" s="9">
+        <v>0.89</v>
+      </c>
       <c r="K82" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L82" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="L82" s="11"/>
       <c r="M82" s="4">
         <v>18</v>
       </c>
@@ -5953,13 +7556,28 @@
         <v>-1.59</v>
       </c>
       <c r="Q82" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R82" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18">
+        <v>26</v>
+      </c>
+      <c r="R82" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S82" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T82" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U82" s="15">
+        <v>0</v>
+      </c>
+      <c r="V82" s="16">
+        <v>3.62</v>
+      </c>
+      <c r="W82" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -5970,7 +7588,7 @@
         <v>688591</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="E83" s="4">
         <v>-0.95</v>
@@ -5979,15 +7597,21 @@
         <v>47.1</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="9"/>
+        <v>199</v>
+      </c>
+      <c r="H83" s="4">
+        <v>-0.23</v>
+      </c>
+      <c r="I83" s="4">
+        <v>47.84</v>
+      </c>
+      <c r="J83" s="9">
+        <v>1.57</v>
+      </c>
       <c r="K83" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L83" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="L83" s="11"/>
       <c r="M83" s="4">
         <v>7</v>
       </c>
@@ -6001,10 +7625,25 @@
         <v>-0.47</v>
       </c>
       <c r="Q83" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R83" s="12" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="R83" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S83" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T83" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U83" s="15">
+        <v>0</v>
+      </c>
+      <c r="V83" s="16">
+        <v>3.33</v>
+      </c>
+      <c r="W83" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
